--- a/src/test/java/data/Demo7.xlsx
+++ b/src/test/java/data/Demo7.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>Name</t>
   </si>
@@ -79,7 +79,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -413,7 +412,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.0" collapsed="false"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -443,8 +442,8 @@
       <c r="B2">
         <v>8596247856</v>
       </c>
-      <c r="C2" t="n">
-        <v>56.0</v>
+      <c r="C2">
+        <v>24</v>
       </c>
       <c r="D2">
         <v>50000</v>
@@ -463,8 +462,8 @@
       <c r="B3">
         <v>8596247857</v>
       </c>
-      <c r="C3" t="n">
-        <v>56.0</v>
+      <c r="C3">
+        <v>23</v>
       </c>
       <c r="D3">
         <v>75000</v>
@@ -473,7 +472,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -483,8 +482,8 @@
       <c r="B4">
         <v>8596247858</v>
       </c>
-      <c r="C4" t="n">
-        <v>56.0</v>
+      <c r="C4">
+        <v>16</v>
       </c>
       <c r="D4">
         <v>65000</v>
@@ -543,8 +542,8 @@
       <c r="B7">
         <v>8596247861</v>
       </c>
-      <c r="C7" t="n">
-        <v>56.0</v>
+      <c r="C7">
+        <v>74</v>
       </c>
       <c r="D7">
         <v>30000</v>
@@ -553,7 +552,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -583,8 +582,8 @@
       <c r="B9">
         <v>8596247863</v>
       </c>
-      <c r="C9" t="n">
-        <v>56.0</v>
+      <c r="C9">
+        <v>65</v>
       </c>
       <c r="D9">
         <v>40000</v>
@@ -593,7 +592,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -603,8 +602,8 @@
       <c r="B10">
         <v>8596247864</v>
       </c>
-      <c r="C10" t="n">
-        <v>56.0</v>
+      <c r="C10">
+        <v>36</v>
       </c>
       <c r="D10">
         <v>25000</v>

--- a/src/test/java/data/Demo7.xlsx
+++ b/src/test/java/data/Demo7.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
   <si>
     <t>Name</t>
   </si>
@@ -79,6 +79,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -412,7 +413,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -442,8 +443,8 @@
       <c r="B2">
         <v>8596247856</v>
       </c>
-      <c r="C2">
-        <v>24</v>
+      <c r="C2" t="n">
+        <v>56.0</v>
       </c>
       <c r="D2">
         <v>50000</v>
@@ -462,8 +463,8 @@
       <c r="B3">
         <v>8596247857</v>
       </c>
-      <c r="C3">
-        <v>23</v>
+      <c r="C3" t="n">
+        <v>56.0</v>
       </c>
       <c r="D3">
         <v>75000</v>
@@ -472,7 +473,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -482,8 +483,8 @@
       <c r="B4">
         <v>8596247858</v>
       </c>
-      <c r="C4">
-        <v>16</v>
+      <c r="C4" t="n">
+        <v>56.0</v>
       </c>
       <c r="D4">
         <v>65000</v>
@@ -542,8 +543,8 @@
       <c r="B7">
         <v>8596247861</v>
       </c>
-      <c r="C7">
-        <v>74</v>
+      <c r="C7" t="n">
+        <v>56.0</v>
       </c>
       <c r="D7">
         <v>30000</v>
@@ -552,7 +553,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -582,8 +583,8 @@
       <c r="B9">
         <v>8596247863</v>
       </c>
-      <c r="C9">
-        <v>65</v>
+      <c r="C9" t="n">
+        <v>56.0</v>
       </c>
       <c r="D9">
         <v>40000</v>
@@ -592,7 +593,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -602,8 +603,8 @@
       <c r="B10">
         <v>8596247864</v>
       </c>
-      <c r="C10">
-        <v>36</v>
+      <c r="C10" t="n">
+        <v>56.0</v>
       </c>
       <c r="D10">
         <v>25000</v>
